--- a/data_processed/20250805/BTCUSDVOLSURFACE_REGULARIZED_20250805.xlsx
+++ b/data_processed/20250805/BTCUSDVOLSURFACE_REGULARIZED_20250805.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6598,7 +6598,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -6826,7 +6826,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -18115,7 +18115,7 @@
       </c>
       <c r="G694" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -18202,7 +18202,7 @@
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -18260,7 +18260,7 @@
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -18318,7 +18318,7 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -18347,7 +18347,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -18376,7 +18376,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -18405,7 +18405,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -28387,7 +28387,7 @@
       </c>
       <c r="G1102" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,BF,CA</t>
         </is>
       </c>
     </row>
@@ -33881,7 +33881,7 @@
       </c>
       <c r="G1320" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -34559,7 +34559,7 @@
       </c>
       <c r="G1346" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="G1350" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -34704,7 +34704,7 @@
       </c>
       <c r="G1351" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -34845,7 +34845,7 @@
       </c>
       <c r="G1356" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -34874,7 +34874,7 @@
       </c>
       <c r="G1357" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -35381,7 +35381,7 @@
       </c>
       <c r="G1376" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35410,7 +35410,7 @@
       </c>
       <c r="G1377" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35555,7 +35555,7 @@
       </c>
       <c r="G1382" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35584,7 +35584,7 @@
       </c>
       <c r="G1383" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35729,7 +35729,7 @@
       </c>
       <c r="G1388" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35841,7 +35841,7 @@
       </c>
       <c r="G1392" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -35870,7 +35870,7 @@
       </c>
       <c r="G1393" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,BF,CA</t>
         </is>
       </c>
     </row>
@@ -35949,7 +35949,7 @@
       </c>
       <c r="G1396" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -36265,7 +36265,7 @@
       </c>
       <c r="G1408" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36294,7 +36294,7 @@
       </c>
       <c r="G1409" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,BF,CA</t>
         </is>
       </c>
     </row>
@@ -36323,7 +36323,7 @@
       </c>
       <c r="G1410" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -36489,7 +36489,7 @@
       </c>
       <c r="G1416" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,BF,CA</t>
         </is>
       </c>
     </row>
@@ -36518,7 +36518,7 @@
       </c>
       <c r="G1417" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -36659,7 +36659,7 @@
       </c>
       <c r="G1422" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -36825,7 +36825,7 @@
       </c>
       <c r="G1428" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38164,7 +38164,7 @@
       </c>
       <c r="G1479" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38193,7 +38193,7 @@
       </c>
       <c r="G1480" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38367,7 +38367,7 @@
       </c>
       <c r="G1486" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38541,7 +38541,7 @@
       </c>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38736,7 +38736,7 @@
       </c>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -41472,7 +41472,7 @@
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41501,7 +41501,7 @@
       </c>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -41559,7 +41559,7 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41617,7 +41617,7 @@
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -41704,7 +41704,7 @@
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41733,7 +41733,7 @@
       </c>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41791,7 +41791,7 @@
       </c>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -41903,7 +41903,7 @@
       </c>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41932,7 +41932,7 @@
       </c>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -44821,7 +44821,7 @@
       </c>
       <c r="G1736" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -44908,7 +44908,7 @@
       </c>
       <c r="G1739" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -44937,7 +44937,7 @@
       </c>
       <c r="G1740" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -44966,7 +44966,7 @@
       </c>
       <c r="G1741" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -44995,7 +44995,7 @@
       </c>
       <c r="G1742" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45024,7 +45024,7 @@
       </c>
       <c r="G1743" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -45053,7 +45053,7 @@
       </c>
       <c r="G1744" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45082,7 +45082,7 @@
       </c>
       <c r="G1745" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45111,7 +45111,7 @@
       </c>
       <c r="G1746" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45140,7 +45140,7 @@
       </c>
       <c r="G1747" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -45169,7 +45169,7 @@
       </c>
       <c r="G1748" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45227,7 +45227,7 @@
       </c>
       <c r="G1750" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -45364,7 +45364,7 @@
       </c>
       <c r="G1755" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -46175,7 +46175,7 @@
       </c>
       <c r="G1786" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -46204,7 +46204,7 @@
       </c>
       <c r="G1787" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250805/BTCUSDVOLSURFACE_REGULARIZED_20250805.xlsx
+++ b/data_processed/20250805/BTCUSDVOLSURFACE_REGULARIZED_20250805.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6598,7 +6598,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6826,7 +6826,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18115,7 +18115,7 @@
       </c>
       <c r="G694" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18202,7 +18202,7 @@
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18260,7 +18260,7 @@
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18318,7 +18318,7 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18347,7 +18347,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18376,7 +18376,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -18405,7 +18405,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -28387,7 +28387,7 @@
       </c>
       <c r="G1102" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -33881,7 +33881,7 @@
       </c>
       <c r="G1320" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34559,7 +34559,7 @@
       </c>
       <c r="G1346" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="G1350" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -34704,7 +34704,7 @@
       </c>
       <c r="G1351" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -34845,7 +34845,7 @@
       </c>
       <c r="G1356" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -34874,7 +34874,7 @@
       </c>
       <c r="G1357" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -35381,7 +35381,7 @@
       </c>
       <c r="G1376" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35410,7 +35410,7 @@
       </c>
       <c r="G1377" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35555,7 +35555,7 @@
       </c>
       <c r="G1382" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35584,7 +35584,7 @@
       </c>
       <c r="G1383" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35729,7 +35729,7 @@
       </c>
       <c r="G1388" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35841,7 +35841,7 @@
       </c>
       <c r="G1392" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -35870,7 +35870,7 @@
       </c>
       <c r="G1393" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -35949,7 +35949,7 @@
       </c>
       <c r="G1396" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -36265,7 +36265,7 @@
       </c>
       <c r="G1408" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36294,7 +36294,7 @@
       </c>
       <c r="G1409" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -36323,7 +36323,7 @@
       </c>
       <c r="G1410" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36489,7 +36489,7 @@
       </c>
       <c r="G1416" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -36518,7 +36518,7 @@
       </c>
       <c r="G1417" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36659,7 +36659,7 @@
       </c>
       <c r="G1422" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36825,7 +36825,7 @@
       </c>
       <c r="G1428" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38164,7 +38164,7 @@
       </c>
       <c r="G1479" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38193,7 +38193,7 @@
       </c>
       <c r="G1480" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38367,7 +38367,7 @@
       </c>
       <c r="G1486" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38541,7 +38541,7 @@
       </c>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38736,7 +38736,7 @@
       </c>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -41472,7 +41472,7 @@
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41501,7 +41501,7 @@
       </c>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -41559,7 +41559,7 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41617,7 +41617,7 @@
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -41704,7 +41704,7 @@
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41733,7 +41733,7 @@
       </c>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41791,7 +41791,7 @@
       </c>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -41903,7 +41903,7 @@
       </c>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41932,7 +41932,7 @@
       </c>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -44821,7 +44821,7 @@
       </c>
       <c r="G1736" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -44908,7 +44908,7 @@
       </c>
       <c r="G1739" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -44937,7 +44937,7 @@
       </c>
       <c r="G1740" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44966,7 +44966,7 @@
       </c>
       <c r="G1741" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -44995,7 +44995,7 @@
       </c>
       <c r="G1742" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45024,7 +45024,7 @@
       </c>
       <c r="G1743" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -45053,7 +45053,7 @@
       </c>
       <c r="G1744" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45082,7 +45082,7 @@
       </c>
       <c r="G1745" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45111,7 +45111,7 @@
       </c>
       <c r="G1746" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45140,7 +45140,7 @@
       </c>
       <c r="G1747" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -45169,7 +45169,7 @@
       </c>
       <c r="G1748" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45227,7 +45227,7 @@
       </c>
       <c r="G1750" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -45364,7 +45364,7 @@
       </c>
       <c r="G1755" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46175,7 +46175,7 @@
       </c>
       <c r="G1786" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46204,7 +46204,7 @@
       </c>
       <c r="G1787" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250805/BTCUSDVOLSURFACE_REGULARIZED_20250805.xlsx
+++ b/data_processed/20250805/BTCUSDVOLSURFACE_REGULARIZED_20250805.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6598,7 +6598,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -6826,7 +6826,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -18376,7 +18376,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -18405,7 +18405,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -28387,7 +28387,7 @@
       </c>
       <c r="G1102" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -33881,7 +33881,7 @@
       </c>
       <c r="G1320" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -34559,7 +34559,7 @@
       </c>
       <c r="G1346" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="G1350" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -34704,7 +34704,7 @@
       </c>
       <c r="G1351" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -34845,7 +34845,7 @@
       </c>
       <c r="G1356" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -34874,7 +34874,7 @@
       </c>
       <c r="G1357" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -35381,7 +35381,7 @@
       </c>
       <c r="G1376" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35410,7 +35410,7 @@
       </c>
       <c r="G1377" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35555,7 +35555,7 @@
       </c>
       <c r="G1382" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35584,7 +35584,7 @@
       </c>
       <c r="G1383" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35729,7 +35729,7 @@
       </c>
       <c r="G1388" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35841,7 +35841,7 @@
       </c>
       <c r="G1392" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -35870,7 +35870,7 @@
       </c>
       <c r="G1393" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -35949,7 +35949,7 @@
       </c>
       <c r="G1396" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -36265,7 +36265,7 @@
       </c>
       <c r="G1408" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36294,7 +36294,7 @@
       </c>
       <c r="G1409" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -36489,7 +36489,7 @@
       </c>
       <c r="G1416" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -36825,7 +36825,7 @@
       </c>
       <c r="G1428" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38164,7 +38164,7 @@
       </c>
       <c r="G1479" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38193,7 +38193,7 @@
       </c>
       <c r="G1480" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38367,7 +38367,7 @@
       </c>
       <c r="G1486" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38541,7 +38541,7 @@
       </c>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38736,7 +38736,7 @@
       </c>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -41472,7 +41472,7 @@
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41559,7 +41559,7 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41704,7 +41704,7 @@
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41733,7 +41733,7 @@
       </c>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41903,7 +41903,7 @@
       </c>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -44937,7 +44937,7 @@
       </c>
       <c r="G1740" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -44995,7 +44995,7 @@
       </c>
       <c r="G1742" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45053,7 +45053,7 @@
       </c>
       <c r="G1744" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45082,7 +45082,7 @@
       </c>
       <c r="G1745" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45111,7 +45111,7 @@
       </c>
       <c r="G1746" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45169,7 +45169,7 @@
       </c>
       <c r="G1748" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45364,7 +45364,7 @@
       </c>
       <c r="G1755" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -46175,7 +46175,7 @@
       </c>
       <c r="G1786" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -46204,7 +46204,7 @@
       </c>
       <c r="G1787" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
